--- a/data_result.xlsx
+++ b/data_result.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Reposit\soft_sob\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="7560"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -66,36 +61,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="10"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,27 +99,18 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -397,20 +376,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="20.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -432,7 +414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -443,18 +425,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>41114111</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -465,18 +447,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>41114111</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -487,11 +469,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>453782</v>
       </c>
       <c r="C8" t="s">
@@ -503,6 +485,6 @@
     <hyperlink ref="A5" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data_result.xlsx
+++ b/data_result.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>

--- a/data_result.xlsx
+++ b/data_result.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <t>admin1111</t>
@@ -381,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -392,92 +389,68 @@
     <col customWidth="1" max="1" min="1" width="20.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>41114111</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>41114111</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>453782</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
